--- a/data/pca/factorExposure/factorExposure_2016-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0103133195055796</v>
+        <v>0.01326088855600155</v>
       </c>
       <c r="C2">
-        <v>0.0559470880188625</v>
+        <v>0.03902838762046807</v>
       </c>
       <c r="D2">
-        <v>-0.03983762040130924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0539449220757715</v>
+      </c>
+      <c r="E2">
+        <v>0.0884796004269443</v>
+      </c>
+      <c r="F2">
+        <v>-0.08474526273104928</v>
+      </c>
+      <c r="G2">
+        <v>-0.02058777934866943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04059687038723897</v>
+        <v>0.02546579788444677</v>
       </c>
       <c r="C3">
-        <v>0.1205592835513385</v>
+        <v>0.06770754100408852</v>
       </c>
       <c r="D3">
-        <v>-0.09328552613281738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07344165129719035</v>
+      </c>
+      <c r="E3">
+        <v>0.06615839155892819</v>
+      </c>
+      <c r="F3">
+        <v>0.02558953702755933</v>
+      </c>
+      <c r="G3">
+        <v>-0.04339430424575948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06005463941200347</v>
+        <v>0.05860507441837676</v>
       </c>
       <c r="C4">
-        <v>0.06122158781665073</v>
+        <v>0.06388836873197312</v>
       </c>
       <c r="D4">
-        <v>-0.02701353965092941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0484097758097522</v>
+      </c>
+      <c r="E4">
+        <v>0.08578178496688138</v>
+      </c>
+      <c r="F4">
+        <v>-0.04804478583663836</v>
+      </c>
+      <c r="G4">
+        <v>-0.08791941215571288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03987045705512028</v>
+        <v>0.0352781064154476</v>
       </c>
       <c r="C6">
-        <v>0.03637809343142099</v>
+        <v>0.02803121497269256</v>
       </c>
       <c r="D6">
-        <v>-0.03078953396174252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05792168175153215</v>
+      </c>
+      <c r="E6">
+        <v>0.08910311579304475</v>
+      </c>
+      <c r="F6">
+        <v>-0.03530402531105609</v>
+      </c>
+      <c r="G6">
+        <v>-0.06951594567492646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02331993331214026</v>
+        <v>0.01884502529101802</v>
       </c>
       <c r="C7">
-        <v>0.04528788282831322</v>
+        <v>0.03864285391812981</v>
       </c>
       <c r="D7">
-        <v>0.0104479839583995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03157449663387251</v>
+      </c>
+      <c r="E7">
+        <v>0.06332863935063096</v>
+      </c>
+      <c r="F7">
+        <v>-0.07747169957715767</v>
+      </c>
+      <c r="G7">
+        <v>-0.08479430316042101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005999425268984053</v>
+        <v>0.003464050183263657</v>
       </c>
       <c r="C8">
-        <v>0.0364278975615535</v>
+        <v>0.03255635983840563</v>
       </c>
       <c r="D8">
-        <v>-0.02581718702945743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02968308466117843</v>
+      </c>
+      <c r="E8">
+        <v>0.05879958371532801</v>
+      </c>
+      <c r="F8">
+        <v>-0.02231390781638666</v>
+      </c>
+      <c r="G8">
+        <v>-0.03596937953051742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03446970937171901</v>
+        <v>0.03797664825789261</v>
       </c>
       <c r="C9">
-        <v>0.04760651196889132</v>
+        <v>0.05096349517291315</v>
       </c>
       <c r="D9">
-        <v>-0.01119240630827181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03466892729008045</v>
+      </c>
+      <c r="E9">
+        <v>0.07241227964393288</v>
+      </c>
+      <c r="F9">
+        <v>-0.05985583997686669</v>
+      </c>
+      <c r="G9">
+        <v>-0.08039884489820338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07667642815637199</v>
+        <v>0.101070792447556</v>
       </c>
       <c r="C10">
-        <v>-0.1868294930349737</v>
+        <v>-0.1958810993088743</v>
       </c>
       <c r="D10">
-        <v>0.009867538481175775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01459352011043246</v>
+      </c>
+      <c r="E10">
+        <v>0.03917912491781523</v>
+      </c>
+      <c r="F10">
+        <v>-0.01981822563633776</v>
+      </c>
+      <c r="G10">
+        <v>-0.03023614213915553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04258750746638097</v>
+        <v>0.03729271250740419</v>
       </c>
       <c r="C11">
-        <v>0.05034171258520319</v>
+        <v>0.04743064752340269</v>
       </c>
       <c r="D11">
-        <v>-0.01100253383311866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02967782908932111</v>
+      </c>
+      <c r="E11">
+        <v>0.02592815197836584</v>
+      </c>
+      <c r="F11">
+        <v>-0.04596205904884793</v>
+      </c>
+      <c r="G11">
+        <v>-0.06363879155689779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04424576124159228</v>
+        <v>0.03908551997561568</v>
       </c>
       <c r="C12">
-        <v>0.04665226218457563</v>
+        <v>0.04529678207576775</v>
       </c>
       <c r="D12">
-        <v>-0.001565516790707234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0239494188469608</v>
+      </c>
+      <c r="E12">
+        <v>0.03363502283626527</v>
+      </c>
+      <c r="F12">
+        <v>-0.04816321374910115</v>
+      </c>
+      <c r="G12">
+        <v>-0.06018001300810959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01483287569000977</v>
+        <v>0.01161023188259789</v>
       </c>
       <c r="C13">
-        <v>0.05334085277868292</v>
+        <v>0.04185060612171222</v>
       </c>
       <c r="D13">
-        <v>-0.006117737884357958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04152157728606305</v>
+      </c>
+      <c r="E13">
+        <v>0.0972489658817428</v>
+      </c>
+      <c r="F13">
+        <v>-0.06726069150752143</v>
+      </c>
+      <c r="G13">
+        <v>-0.09030763409751436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008252768156444093</v>
+        <v>0.004760707697623411</v>
       </c>
       <c r="C14">
-        <v>0.04217603993573206</v>
+        <v>0.03352359861796885</v>
       </c>
       <c r="D14">
-        <v>0.01108237411914311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02177085363245023</v>
+      </c>
+      <c r="E14">
+        <v>0.0506865117545807</v>
+      </c>
+      <c r="F14">
+        <v>-0.08192228539611233</v>
+      </c>
+      <c r="G14">
+        <v>-0.07143521660857957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001525637289345507</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005381929267656585</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007212251230501932</v>
+      </c>
+      <c r="E15">
+        <v>0.00472684482361952</v>
+      </c>
+      <c r="F15">
+        <v>-0.00594658136863025</v>
+      </c>
+      <c r="G15">
+        <v>-0.005968725143487436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03896223733695958</v>
+        <v>0.0347652855903449</v>
       </c>
       <c r="C16">
-        <v>0.04912291907014017</v>
+        <v>0.04462678615137216</v>
       </c>
       <c r="D16">
-        <v>-0.005095554414094897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02306643676994451</v>
+      </c>
+      <c r="E16">
+        <v>0.04058508855380231</v>
+      </c>
+      <c r="F16">
+        <v>-0.054693558543278</v>
+      </c>
+      <c r="G16">
+        <v>-0.05069933517343692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02384208454358603</v>
+        <v>0.01765297766030663</v>
       </c>
       <c r="C19">
-        <v>0.06122441872730042</v>
+        <v>0.04433264606037069</v>
       </c>
       <c r="D19">
-        <v>-0.088185540675647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08777893534218463</v>
+      </c>
+      <c r="E19">
+        <v>0.1137511835342048</v>
+      </c>
+      <c r="F19">
+        <v>-0.06828889061718588</v>
+      </c>
+      <c r="G19">
+        <v>-0.0370370808159538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01720938871118103</v>
+        <v>0.01361279240808994</v>
       </c>
       <c r="C20">
-        <v>0.04769803839827182</v>
+        <v>0.03896387376854518</v>
       </c>
       <c r="D20">
-        <v>-0.007330115818875405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02941969539565918</v>
+      </c>
+      <c r="E20">
+        <v>0.07721470882332886</v>
+      </c>
+      <c r="F20">
+        <v>-0.05561017821356667</v>
+      </c>
+      <c r="G20">
+        <v>-0.06150499117567998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01099384444962546</v>
+        <v>0.009787361927255636</v>
       </c>
       <c r="C21">
-        <v>0.05028366353311667</v>
+        <v>0.04129947976138336</v>
       </c>
       <c r="D21">
-        <v>-0.03662126997769867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05515999187799075</v>
+      </c>
+      <c r="E21">
+        <v>0.1196570169975936</v>
+      </c>
+      <c r="F21">
+        <v>-0.09112203829169609</v>
+      </c>
+      <c r="G21">
+        <v>-0.09471162774635333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001342547274015592</v>
+        <v>0.002593937396448239</v>
       </c>
       <c r="C22">
-        <v>0.001028018144129014</v>
+        <v>0.02690459948974138</v>
       </c>
       <c r="D22">
-        <v>-0.003431813930109164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04197539206158903</v>
+      </c>
+      <c r="E22">
+        <v>0.04196081639947292</v>
+      </c>
+      <c r="F22">
+        <v>0.008907269751869392</v>
+      </c>
+      <c r="G22">
+        <v>-0.05200957465506031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001348263334965847</v>
+        <v>0.002669060256960991</v>
       </c>
       <c r="C23">
-        <v>0.001028469280130711</v>
+        <v>0.02706482130928779</v>
       </c>
       <c r="D23">
-        <v>-0.003437213491573505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04153988849716246</v>
+      </c>
+      <c r="E23">
+        <v>0.04219176405429403</v>
+      </c>
+      <c r="F23">
+        <v>0.009194567250514129</v>
+      </c>
+      <c r="G23">
+        <v>-0.05199989370563838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03621829886217465</v>
+        <v>0.03501161851078761</v>
       </c>
       <c r="C24">
-        <v>0.04984687798635336</v>
+        <v>0.05190453971780917</v>
       </c>
       <c r="D24">
-        <v>-0.006517270240893528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02278170389245711</v>
+      </c>
+      <c r="E24">
+        <v>0.04162613235825711</v>
+      </c>
+      <c r="F24">
+        <v>-0.05647155111324617</v>
+      </c>
+      <c r="G24">
+        <v>-0.0623924992763908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0491660798949777</v>
+        <v>0.04432519602371594</v>
       </c>
       <c r="C25">
-        <v>0.06047096094489585</v>
+        <v>0.05565181541965439</v>
       </c>
       <c r="D25">
-        <v>0.004456332027674481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02192614611178218</v>
+      </c>
+      <c r="E25">
+        <v>0.03143754347701405</v>
+      </c>
+      <c r="F25">
+        <v>-0.04836522061423754</v>
+      </c>
+      <c r="G25">
+        <v>-0.07622838102759703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01648636681994363</v>
+        <v>0.01511387739355224</v>
       </c>
       <c r="C26">
-        <v>0.0172666183931065</v>
+        <v>0.01725468696877783</v>
       </c>
       <c r="D26">
-        <v>-0.0002315962509113097</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02234974187805079</v>
+      </c>
+      <c r="E26">
+        <v>0.05098060481023409</v>
+      </c>
+      <c r="F26">
+        <v>-0.06214133411125993</v>
+      </c>
+      <c r="G26">
+        <v>-0.04220095249015554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09222067940091432</v>
+        <v>0.1369422102789661</v>
       </c>
       <c r="C28">
-        <v>-0.2463263655456003</v>
+        <v>-0.2524531204673142</v>
       </c>
       <c r="D28">
-        <v>0.006993927157275211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02837611780795093</v>
+      </c>
+      <c r="E28">
+        <v>0.05598631293603078</v>
+      </c>
+      <c r="F28">
+        <v>-0.02531023756544532</v>
+      </c>
+      <c r="G28">
+        <v>-0.05017814426356614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007247110796381247</v>
+        <v>0.005571652964719898</v>
       </c>
       <c r="C29">
-        <v>0.03409350537170296</v>
+        <v>0.02970218306520742</v>
       </c>
       <c r="D29">
-        <v>0.0159531870995471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01531688196509048</v>
+      </c>
+      <c r="E29">
+        <v>0.04862181016769317</v>
+      </c>
+      <c r="F29">
+        <v>-0.06980624288551504</v>
+      </c>
+      <c r="G29">
+        <v>-0.07732915294464046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04512098913656502</v>
+        <v>0.04129023166986622</v>
       </c>
       <c r="C30">
-        <v>0.05264524344172452</v>
+        <v>0.05600843180932041</v>
       </c>
       <c r="D30">
-        <v>-0.06832062374612004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09468433927429615</v>
+      </c>
+      <c r="E30">
+        <v>0.07932782352257431</v>
+      </c>
+      <c r="F30">
+        <v>-0.0790918587000083</v>
+      </c>
+      <c r="G30">
+        <v>-0.05702926797449978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05837187375739562</v>
+        <v>0.05728525172600607</v>
       </c>
       <c r="C31">
-        <v>0.04477763962910348</v>
+        <v>0.0611857848235174</v>
       </c>
       <c r="D31">
-        <v>0.03555682897841159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01638738720850023</v>
+      </c>
+      <c r="E31">
+        <v>0.06615468728952448</v>
+      </c>
+      <c r="F31">
+        <v>-0.03016252453782465</v>
+      </c>
+      <c r="G31">
+        <v>-0.08568714947886003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001561602505398538</v>
+        <v>0.004357428687041268</v>
       </c>
       <c r="C32">
-        <v>0.04465116493006743</v>
+        <v>0.03523178449936631</v>
       </c>
       <c r="D32">
-        <v>-0.047174589634156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05150553033819506</v>
+      </c>
+      <c r="E32">
+        <v>0.05869497493671473</v>
+      </c>
+      <c r="F32">
+        <v>-0.0683768004673629</v>
+      </c>
+      <c r="G32">
+        <v>-0.04784772077137619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03209983872503262</v>
+        <v>0.02685524857155695</v>
       </c>
       <c r="C33">
-        <v>0.05909465090253329</v>
+        <v>0.05295452619938981</v>
       </c>
       <c r="D33">
-        <v>-0.03853970774491827</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06892720063073769</v>
+      </c>
+      <c r="E33">
+        <v>0.09131302349660314</v>
+      </c>
+      <c r="F33">
+        <v>-0.07868113347798956</v>
+      </c>
+      <c r="G33">
+        <v>-0.09347658791096861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04655579232608735</v>
+        <v>0.04165609932279789</v>
       </c>
       <c r="C34">
-        <v>0.06509546944304601</v>
+        <v>0.06319298847186584</v>
       </c>
       <c r="D34">
-        <v>-0.01420219425983639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03637560801340222</v>
+      </c>
+      <c r="E34">
+        <v>0.01409617896211644</v>
+      </c>
+      <c r="F34">
+        <v>-0.05930863628225864</v>
+      </c>
+      <c r="G34">
+        <v>-0.0653145184843926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01653301124792776</v>
+        <v>0.01438254442369825</v>
       </c>
       <c r="C36">
-        <v>0.01696148563294709</v>
+        <v>0.01339848441518573</v>
       </c>
       <c r="D36">
-        <v>0.004925568535345849</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02083225768599291</v>
+      </c>
+      <c r="E36">
+        <v>0.05853151412013222</v>
+      </c>
+      <c r="F36">
+        <v>-0.05367177847584496</v>
+      </c>
+      <c r="G36">
+        <v>-0.06139844332729566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02998473876576773</v>
+        <v>0.02332320061962362</v>
       </c>
       <c r="C38">
-        <v>0.03056548266028803</v>
+        <v>0.02329161779146185</v>
       </c>
       <c r="D38">
-        <v>0.0166986248965184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01928701590270217</v>
+      </c>
+      <c r="E38">
+        <v>0.05070342116737583</v>
+      </c>
+      <c r="F38">
+        <v>-0.04688774591031167</v>
+      </c>
+      <c r="G38">
+        <v>-0.04538337560238639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04719544476748089</v>
+        <v>0.040781402932852</v>
       </c>
       <c r="C39">
-        <v>0.06300422691569491</v>
+        <v>0.06270345022224795</v>
       </c>
       <c r="D39">
-        <v>-0.01425611757470237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04676609955983323</v>
+      </c>
+      <c r="E39">
+        <v>0.04765706036449256</v>
+      </c>
+      <c r="F39">
+        <v>-0.07877607241326681</v>
+      </c>
+      <c r="G39">
+        <v>-0.05563384806942246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01291605343163035</v>
+        <v>0.01362261430244663</v>
       </c>
       <c r="C40">
-        <v>0.05251935095940962</v>
+        <v>0.03722161532024323</v>
       </c>
       <c r="D40">
-        <v>-0.01118194010010166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02629843496303506</v>
+      </c>
+      <c r="E40">
+        <v>0.08432621002815299</v>
+      </c>
+      <c r="F40">
+        <v>-0.04201807285958996</v>
+      </c>
+      <c r="G40">
+        <v>-0.09810965031662866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02259799312848171</v>
+        <v>0.01913112307497006</v>
       </c>
       <c r="C41">
-        <v>0.01479831390518858</v>
+        <v>0.01076037160994107</v>
       </c>
       <c r="D41">
-        <v>0.0006598145647819607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01387641620533908</v>
+      </c>
+      <c r="E41">
+        <v>0.05858706875686175</v>
+      </c>
+      <c r="F41">
+        <v>-0.04912990838447881</v>
+      </c>
+      <c r="G41">
+        <v>-0.05042142585275992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04101958079361247</v>
+        <v>0.02981641088105215</v>
       </c>
       <c r="C43">
-        <v>0.03304314658484456</v>
+        <v>0.02431267561350146</v>
       </c>
       <c r="D43">
-        <v>-0.02553095122993436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04083918838158535</v>
+      </c>
+      <c r="E43">
+        <v>0.07477015886680621</v>
+      </c>
+      <c r="F43">
+        <v>-0.04458835981275153</v>
+      </c>
+      <c r="G43">
+        <v>-0.07488494572634516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01414508628554308</v>
+        <v>0.01500155782924684</v>
       </c>
       <c r="C44">
-        <v>0.06700304616690549</v>
+        <v>0.04750032132782687</v>
       </c>
       <c r="D44">
-        <v>-0.006226935508197163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02987139512667952</v>
+      </c>
+      <c r="E44">
+        <v>0.08784698614516259</v>
+      </c>
+      <c r="F44">
+        <v>-0.0622181560982277</v>
+      </c>
+      <c r="G44">
+        <v>-0.04242311369547844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008536300632209096</v>
+        <v>0.009092568914927299</v>
       </c>
       <c r="C46">
-        <v>0.02925302047382853</v>
+        <v>0.0296603527352206</v>
       </c>
       <c r="D46">
-        <v>0.01764486000538329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009080387315704793</v>
+      </c>
+      <c r="E46">
+        <v>0.05786992052298536</v>
+      </c>
+      <c r="F46">
+        <v>-0.08138672152185478</v>
+      </c>
+      <c r="G46">
+        <v>-0.07594087009665218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08526873896904387</v>
+        <v>0.08936470144181061</v>
       </c>
       <c r="C47">
-        <v>0.07109414600018825</v>
+        <v>0.08137368367534945</v>
       </c>
       <c r="D47">
-        <v>0.03178951190712152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02342871883659849</v>
+      </c>
+      <c r="E47">
+        <v>0.06855683687612991</v>
+      </c>
+      <c r="F47">
+        <v>-0.02616878553357599</v>
+      </c>
+      <c r="G47">
+        <v>-0.07912327535432624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01928168942178021</v>
+        <v>0.01723066584533045</v>
       </c>
       <c r="C48">
-        <v>0.01400303921118434</v>
+        <v>0.01563863127929739</v>
       </c>
       <c r="D48">
-        <v>0.01918898076936528</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008663482186476678</v>
+      </c>
+      <c r="E48">
+        <v>0.0684602453935899</v>
+      </c>
+      <c r="F48">
+        <v>-0.06845538009618404</v>
+      </c>
+      <c r="G48">
+        <v>-0.07099958762298136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08173749948577914</v>
+        <v>0.07101623454752615</v>
       </c>
       <c r="C50">
-        <v>0.08228600260331533</v>
+        <v>0.07563147820570444</v>
       </c>
       <c r="D50">
-        <v>0.03355486671752918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008230448192762047</v>
+      </c>
+      <c r="E50">
+        <v>0.07483574099178922</v>
+      </c>
+      <c r="F50">
+        <v>-0.003985916120430619</v>
+      </c>
+      <c r="G50">
+        <v>-0.09812894952497603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01609330887401454</v>
+        <v>0.01005064995320619</v>
       </c>
       <c r="C51">
-        <v>0.04996070630649311</v>
+        <v>0.03211070858541214</v>
       </c>
       <c r="D51">
-        <v>-0.0322064512971644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05040066753847056</v>
+      </c>
+      <c r="E51">
+        <v>0.05005946459329544</v>
+      </c>
+      <c r="F51">
+        <v>-0.07183068227186877</v>
+      </c>
+      <c r="G51">
+        <v>-0.04929877966808047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08423393930639315</v>
+        <v>0.09651769719961967</v>
       </c>
       <c r="C53">
-        <v>0.07533075609806289</v>
+        <v>0.08547961419275182</v>
       </c>
       <c r="D53">
-        <v>0.05271115403392276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05594448623238141</v>
+      </c>
+      <c r="E53">
+        <v>0.06187186680728363</v>
+      </c>
+      <c r="F53">
+        <v>-0.02469569919923908</v>
+      </c>
+      <c r="G53">
+        <v>-0.08234583809712455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03393046718190087</v>
+        <v>0.02810861014641711</v>
       </c>
       <c r="C54">
-        <v>0.03871907308718012</v>
+        <v>0.0330424988788688</v>
       </c>
       <c r="D54">
-        <v>0.00313772786544116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02216618539229062</v>
+      </c>
+      <c r="E54">
+        <v>0.0576420142726899</v>
+      </c>
+      <c r="F54">
+        <v>-0.0736173720795487</v>
+      </c>
+      <c r="G54">
+        <v>-0.07448661466678189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07776821901771745</v>
+        <v>0.08796238841559018</v>
       </c>
       <c r="C55">
-        <v>0.05445553054164996</v>
+        <v>0.06802983047876157</v>
       </c>
       <c r="D55">
-        <v>0.05826639266523122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05850737367856018</v>
+      </c>
+      <c r="E55">
+        <v>0.04378558267680673</v>
+      </c>
+      <c r="F55">
+        <v>-0.009581270545850248</v>
+      </c>
+      <c r="G55">
+        <v>-0.06082308401544518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1489569906126772</v>
+        <v>0.1508500288111597</v>
       </c>
       <c r="C56">
-        <v>0.08962629957770532</v>
+        <v>0.1045738852150222</v>
       </c>
       <c r="D56">
-        <v>0.05179998252138927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0552696823698878</v>
+      </c>
+      <c r="E56">
+        <v>0.04213173538540705</v>
+      </c>
+      <c r="F56">
+        <v>0.01149496392008738</v>
+      </c>
+      <c r="G56">
+        <v>-0.03713039727434124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04076924300746718</v>
+        <v>0.02441884384891948</v>
       </c>
       <c r="C58">
-        <v>0.02921175166877118</v>
+        <v>0.02620512728839426</v>
       </c>
       <c r="D58">
-        <v>-0.6656987072518251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3713087969549652</v>
+      </c>
+      <c r="E58">
+        <v>0.6573638552983072</v>
+      </c>
+      <c r="F58">
+        <v>0.4319560000663526</v>
+      </c>
+      <c r="G58">
+        <v>0.411721684316334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1302670782088123</v>
+        <v>0.1438636125263259</v>
       </c>
       <c r="C59">
-        <v>-0.1989424604455655</v>
+        <v>-0.1889418618990598</v>
       </c>
       <c r="D59">
-        <v>-0.02474744216692837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02667803263221635</v>
+      </c>
+      <c r="E59">
+        <v>0.02850690011201674</v>
+      </c>
+      <c r="F59">
+        <v>-0.03017873852013944</v>
+      </c>
+      <c r="G59">
+        <v>0.01461836532715979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3094061803968006</v>
+        <v>0.2790203677072027</v>
       </c>
       <c r="C60">
-        <v>0.1090076479399793</v>
+        <v>0.1074155324787941</v>
       </c>
       <c r="D60">
-        <v>-0.1722220287723724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2673123964605094</v>
+      </c>
+      <c r="E60">
+        <v>-0.2374764726225408</v>
+      </c>
+      <c r="F60">
+        <v>0.07865313420544748</v>
+      </c>
+      <c r="G60">
+        <v>-0.024513632279841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04443331709040898</v>
+        <v>0.04128087603309268</v>
       </c>
       <c r="C61">
-        <v>0.06311076592243002</v>
+        <v>0.05994638341958858</v>
       </c>
       <c r="D61">
-        <v>-0.009827045446325535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03844977727053471</v>
+      </c>
+      <c r="E61">
+        <v>0.05015061283215512</v>
+      </c>
+      <c r="F61">
+        <v>-0.05815141997351757</v>
+      </c>
+      <c r="G61">
+        <v>-0.0697866562890018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01679066789243572</v>
+        <v>0.01556288853039134</v>
       </c>
       <c r="C63">
-        <v>0.03332673689585549</v>
+        <v>0.03113820346170252</v>
       </c>
       <c r="D63">
-        <v>0.01797761703654988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01427800020433306</v>
+      </c>
+      <c r="E63">
+        <v>0.06057940430213998</v>
+      </c>
+      <c r="F63">
+        <v>-0.04036966698795837</v>
+      </c>
+      <c r="G63">
+        <v>-0.07487967031261324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05079547913468107</v>
+        <v>0.05627313506299884</v>
       </c>
       <c r="C64">
-        <v>0.04607759255987565</v>
+        <v>0.05648771295707689</v>
       </c>
       <c r="D64">
-        <v>0.0006650931880310289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002577405198212751</v>
+      </c>
+      <c r="E64">
+        <v>0.03736890485698448</v>
+      </c>
+      <c r="F64">
+        <v>-0.06362349136102001</v>
+      </c>
+      <c r="G64">
+        <v>-0.06292126980711812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0814598366872583</v>
+        <v>0.06568742164447</v>
       </c>
       <c r="C65">
-        <v>0.03044785640696835</v>
+        <v>0.02899459536102679</v>
       </c>
       <c r="D65">
-        <v>-0.05961864874299274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08569895361439417</v>
+      </c>
+      <c r="E65">
+        <v>0.05736400700043123</v>
+      </c>
+      <c r="F65">
+        <v>-0.009390987254309421</v>
+      </c>
+      <c r="G65">
+        <v>-0.02404836738647105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06323592128663634</v>
+        <v>0.05295620230026966</v>
       </c>
       <c r="C66">
-        <v>0.08605550387643557</v>
+        <v>0.08005502685650566</v>
       </c>
       <c r="D66">
-        <v>-0.03525507190207969</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07207271934918179</v>
+      </c>
+      <c r="E66">
+        <v>0.05651838359208838</v>
+      </c>
+      <c r="F66">
+        <v>-0.07206147440117569</v>
+      </c>
+      <c r="G66">
+        <v>-0.07201861181113971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05183371438776609</v>
+        <v>0.04508372226556536</v>
       </c>
       <c r="C67">
-        <v>0.03135554555851162</v>
+        <v>0.0281884015824035</v>
       </c>
       <c r="D67">
-        <v>0.02373638082288538</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004098387362647707</v>
+      </c>
+      <c r="E67">
+        <v>0.02706865362275425</v>
+      </c>
+      <c r="F67">
+        <v>-0.03417494576272889</v>
+      </c>
+      <c r="G67">
+        <v>-0.03841375113644223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.127967488742647</v>
+        <v>0.1507079623210161</v>
       </c>
       <c r="C68">
-        <v>-0.2802285946383453</v>
+        <v>-0.2442439806440713</v>
       </c>
       <c r="D68">
-        <v>0.005377373892073389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01576542854974164</v>
+      </c>
+      <c r="E68">
+        <v>0.0383668835233219</v>
+      </c>
+      <c r="F68">
+        <v>-0.002169473639953409</v>
+      </c>
+      <c r="G68">
+        <v>-0.03042768307510848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09142741682939159</v>
+        <v>0.08722319609256403</v>
       </c>
       <c r="C69">
-        <v>0.07162092747798107</v>
+        <v>0.08926817876286333</v>
       </c>
       <c r="D69">
-        <v>0.04459185455141118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01354288379217079</v>
+      </c>
+      <c r="E69">
+        <v>0.05467036309387258</v>
+      </c>
+      <c r="F69">
+        <v>-0.05875400765327872</v>
+      </c>
+      <c r="G69">
+        <v>-0.08271665281383778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1175712746346242</v>
+        <v>0.1439261156213338</v>
       </c>
       <c r="C71">
-        <v>-0.2546805008025918</v>
+        <v>-0.2409056690600157</v>
       </c>
       <c r="D71">
-        <v>-0.01578246453930685</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001146152600520167</v>
+      </c>
+      <c r="E71">
+        <v>0.05990444829825218</v>
+      </c>
+      <c r="F71">
+        <v>-0.01221785168109005</v>
+      </c>
+      <c r="G71">
+        <v>-0.05770072197143018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0926792376683554</v>
+        <v>0.1005818010775942</v>
       </c>
       <c r="C72">
-        <v>0.05503091600502352</v>
+        <v>0.05749848145506496</v>
       </c>
       <c r="D72">
-        <v>-0.002183825754624591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02618707696918612</v>
+      </c>
+      <c r="E72">
+        <v>0.02734456836176886</v>
+      </c>
+      <c r="F72">
+        <v>-0.03351360906315889</v>
+      </c>
+      <c r="G72">
+        <v>-0.07164608991774299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4051673795898929</v>
+        <v>0.3425004278419612</v>
       </c>
       <c r="C73">
-        <v>0.04339204585783112</v>
+        <v>0.06781368612079269</v>
       </c>
       <c r="D73">
-        <v>-0.4067640032440821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5243848505069179</v>
+      </c>
+      <c r="E73">
+        <v>-0.4375106289004436</v>
+      </c>
+      <c r="F73">
+        <v>0.2239189442671309</v>
+      </c>
+      <c r="G73">
+        <v>0.004650465883330574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1045608452273898</v>
+        <v>0.1095650637553141</v>
       </c>
       <c r="C74">
-        <v>0.09610491874497179</v>
+        <v>0.09543396000863666</v>
       </c>
       <c r="D74">
-        <v>0.03472179060377451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04504013394005448</v>
+      </c>
+      <c r="E74">
+        <v>0.06102268464857752</v>
+      </c>
+      <c r="F74">
+        <v>0.01442896400678806</v>
+      </c>
+      <c r="G74">
+        <v>-0.06405417042709675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2538552557670518</v>
+        <v>0.2581329430430046</v>
       </c>
       <c r="C75">
-        <v>0.102661364920554</v>
+        <v>0.1305121347995806</v>
       </c>
       <c r="D75">
-        <v>0.1245105207713893</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1508719135216266</v>
+      </c>
+      <c r="E75">
+        <v>0.042457903163603</v>
+      </c>
+      <c r="F75">
+        <v>0.05419858734965638</v>
+      </c>
+      <c r="G75">
+        <v>0.0106897772320789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1148568735824408</v>
+        <v>0.1287504086580313</v>
       </c>
       <c r="C76">
-        <v>0.08007009275592908</v>
+        <v>0.0926133154220365</v>
       </c>
       <c r="D76">
-        <v>0.06272158930093646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07596259139056769</v>
+      </c>
+      <c r="E76">
+        <v>0.06801054298585732</v>
+      </c>
+      <c r="F76">
+        <v>-0.006165363080333994</v>
+      </c>
+      <c r="G76">
+        <v>-0.05253388338872569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07797527350582059</v>
+        <v>0.06385452680342805</v>
       </c>
       <c r="C77">
-        <v>0.05157467992282893</v>
+        <v>0.06221479167208958</v>
       </c>
       <c r="D77">
-        <v>-0.05047612087188482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04937591449944549</v>
+      </c>
+      <c r="E77">
+        <v>0.1009475893519584</v>
+      </c>
+      <c r="F77">
+        <v>-0.1716014736255872</v>
+      </c>
+      <c r="G77">
+        <v>0.08624612552470549</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04916463828174938</v>
+        <v>0.04582115403830172</v>
       </c>
       <c r="C78">
-        <v>0.04581326734499886</v>
+        <v>0.05582756169435083</v>
       </c>
       <c r="D78">
-        <v>-0.02008398515554537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0567023041450376</v>
+      </c>
+      <c r="E78">
+        <v>0.05655833715037801</v>
+      </c>
+      <c r="F78">
+        <v>-0.06261576087439298</v>
+      </c>
+      <c r="G78">
+        <v>-0.0601999921854482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03016873485864405</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04556487587940101</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07535341548973269</v>
+      </c>
+      <c r="E79">
+        <v>0.05948936809902115</v>
+      </c>
+      <c r="F79">
+        <v>0.02480239842552476</v>
+      </c>
+      <c r="G79">
+        <v>-0.0543827098130136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03782895179306611</v>
+        <v>0.0297311559536902</v>
       </c>
       <c r="C80">
-        <v>0.04843345704952217</v>
+        <v>0.04994657784186111</v>
       </c>
       <c r="D80">
-        <v>-0.02557594344756573</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03539800382335918</v>
+      </c>
+      <c r="E80">
+        <v>0.01753545283902662</v>
+      </c>
+      <c r="F80">
+        <v>-0.05243720732838615</v>
+      </c>
+      <c r="G80">
+        <v>0.01408477796537099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.139336757791297</v>
+        <v>0.1397115328148339</v>
       </c>
       <c r="C81">
-        <v>0.07500933662844751</v>
+        <v>0.09345475676522469</v>
       </c>
       <c r="D81">
-        <v>0.09076063796957469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1194336749916199</v>
+      </c>
+      <c r="E81">
+        <v>0.06808447152274234</v>
+      </c>
+      <c r="F81">
+        <v>0.03497327295713144</v>
+      </c>
+      <c r="G81">
+        <v>-0.01017902466260664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1781863493349671</v>
+        <v>0.2154223606340047</v>
       </c>
       <c r="C82">
-        <v>0.08956527690992647</v>
+        <v>0.1541122433508846</v>
       </c>
       <c r="D82">
-        <v>0.1821106667923423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2462163363763479</v>
+      </c>
+      <c r="E82">
+        <v>-0.02164462068483951</v>
+      </c>
+      <c r="F82">
+        <v>-0.03610782983403296</v>
+      </c>
+      <c r="G82">
+        <v>-0.04745938863618314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03978778384970628</v>
+        <v>0.0273302145517907</v>
       </c>
       <c r="C83">
-        <v>0.03141860027026575</v>
+        <v>0.04352532388261834</v>
       </c>
       <c r="D83">
-        <v>-0.03508914767179647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02806269205632242</v>
+      </c>
+      <c r="E83">
+        <v>0.02718799371207775</v>
+      </c>
+      <c r="F83">
+        <v>-0.04711486732522543</v>
+      </c>
+      <c r="G83">
+        <v>-0.004310393304747721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004564959189491044</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00017045088728116</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002097458511470966</v>
+      </c>
+      <c r="E84">
+        <v>0.002255320651710993</v>
+      </c>
+      <c r="F84">
+        <v>0.000902799314117426</v>
+      </c>
+      <c r="G84">
+        <v>-0.002032470902454326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2232190966853065</v>
+        <v>0.2055294855875524</v>
       </c>
       <c r="C85">
-        <v>0.0951981753321669</v>
+        <v>0.1127244324750927</v>
       </c>
       <c r="D85">
-        <v>0.1502183540867312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1143301863419924</v>
+      </c>
+      <c r="E85">
+        <v>-0.02503186887285472</v>
+      </c>
+      <c r="F85">
+        <v>0.1036716261729788</v>
+      </c>
+      <c r="G85">
+        <v>-0.03608217254149628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008760222470901125</v>
+        <v>0.0108763291647046</v>
       </c>
       <c r="C86">
-        <v>0.02560949301265531</v>
+        <v>0.01875497181885497</v>
       </c>
       <c r="D86">
-        <v>-0.04288706016817034</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05603181378309648</v>
+      </c>
+      <c r="E86">
+        <v>0.07853455709995173</v>
+      </c>
+      <c r="F86">
+        <v>-0.09657464940410762</v>
+      </c>
+      <c r="G86">
+        <v>-0.07291674540287249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02473535211740758</v>
+        <v>0.02499593119119154</v>
       </c>
       <c r="C87">
-        <v>0.003905273774427139</v>
+        <v>0.0117718771794522</v>
       </c>
       <c r="D87">
-        <v>-0.08102480738719801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07618945856526163</v>
+      </c>
+      <c r="E87">
+        <v>0.1289243198423303</v>
+      </c>
+      <c r="F87">
+        <v>-0.0771826316605861</v>
+      </c>
+      <c r="G87">
+        <v>-0.01146512241109524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1080489182121594</v>
+        <v>0.09339616408471348</v>
       </c>
       <c r="C88">
-        <v>0.07196509309840619</v>
+        <v>0.06154445711642476</v>
       </c>
       <c r="D88">
-        <v>0.02804506082062134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003416529621145937</v>
+      </c>
+      <c r="E88">
+        <v>0.05131512748944827</v>
+      </c>
+      <c r="F88">
+        <v>-0.06579174907341083</v>
+      </c>
+      <c r="G88">
+        <v>-0.03171610856102278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1837748188283288</v>
+        <v>0.2196405362478312</v>
       </c>
       <c r="C89">
-        <v>-0.3762930443103351</v>
+        <v>-0.3808515586155618</v>
       </c>
       <c r="D89">
-        <v>0.03004449591196523</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02744099367416428</v>
+      </c>
+      <c r="E89">
+        <v>0.06851255235939581</v>
+      </c>
+      <c r="F89">
+        <v>-0.1002129695445979</v>
+      </c>
+      <c r="G89">
+        <v>0.008477850172586126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1770025486093797</v>
+        <v>0.199725612626363</v>
       </c>
       <c r="C90">
-        <v>-0.3350451563438391</v>
+        <v>-0.3107944545153314</v>
       </c>
       <c r="D90">
-        <v>0.03621444867203041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02744225748767494</v>
+      </c>
+      <c r="E90">
+        <v>0.0666549117738278</v>
+      </c>
+      <c r="F90">
+        <v>-0.03076600073266191</v>
+      </c>
+      <c r="G90">
+        <v>-0.008382370753338805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1894335918178369</v>
+        <v>0.1869661538146919</v>
       </c>
       <c r="C91">
-        <v>0.12766086419131</v>
+        <v>0.1434985030637727</v>
       </c>
       <c r="D91">
-        <v>0.1163799610440302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1265065659819033</v>
+      </c>
+      <c r="E91">
+        <v>0.04670691025057463</v>
+      </c>
+      <c r="F91">
+        <v>0.01574875000573597</v>
+      </c>
+      <c r="G91">
+        <v>-0.02107825785085391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1605022248236873</v>
+        <v>0.1802907626259866</v>
       </c>
       <c r="C92">
-        <v>-0.2864974370204708</v>
+        <v>-0.2910375562276083</v>
       </c>
       <c r="D92">
-        <v>0.02963693933177307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02994484154735508</v>
+      </c>
+      <c r="E92">
+        <v>0.06929482390907683</v>
+      </c>
+      <c r="F92">
+        <v>-0.06965924809465111</v>
+      </c>
+      <c r="G92">
+        <v>-0.02914375891993341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1984034672140687</v>
+        <v>0.2214034347456461</v>
       </c>
       <c r="C93">
-        <v>-0.3390148681575887</v>
+        <v>-0.3200125385875012</v>
       </c>
       <c r="D93">
-        <v>0.03618354564402498</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02188553034564585</v>
+      </c>
+      <c r="E93">
+        <v>0.04216168534648067</v>
+      </c>
+      <c r="F93">
+        <v>-0.006038696964443495</v>
+      </c>
+      <c r="G93">
+        <v>-0.04109056843163582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3307705059160553</v>
+        <v>0.3355759026580354</v>
       </c>
       <c r="C94">
-        <v>0.1535928756828029</v>
+        <v>0.1889266613568058</v>
       </c>
       <c r="D94">
-        <v>0.3753685346399255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4307121364460559</v>
+      </c>
+      <c r="E94">
+        <v>-0.01078915437330294</v>
+      </c>
+      <c r="F94">
+        <v>0.1585990331635604</v>
+      </c>
+      <c r="G94">
+        <v>0.4439405560905178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1167543285499637</v>
+        <v>0.08642476931466236</v>
       </c>
       <c r="C95">
-        <v>0.06649828888271672</v>
+        <v>0.06199943308331836</v>
       </c>
       <c r="D95">
-        <v>-0.1631452788934259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1832147743493421</v>
+      </c>
+      <c r="E95">
+        <v>-0.08611318887217871</v>
+      </c>
+      <c r="F95">
+        <v>-0.6858008786463483</v>
+      </c>
+      <c r="G95">
+        <v>0.5954209537088239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1957961152952322</v>
+        <v>0.1880239057555029</v>
       </c>
       <c r="C98">
-        <v>0.01832532118964952</v>
+        <v>0.04469298305515886</v>
       </c>
       <c r="D98">
-        <v>-0.142451197547873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2022436159497868</v>
+      </c>
+      <c r="E98">
+        <v>-0.1307154758362014</v>
+      </c>
+      <c r="F98">
+        <v>0.07729218444740628</v>
+      </c>
+      <c r="G98">
+        <v>-0.07070828434126693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007027584109268508</v>
+        <v>0.005565560861986748</v>
       </c>
       <c r="C101">
-        <v>0.03412579398595107</v>
+        <v>0.02927859081507941</v>
       </c>
       <c r="D101">
-        <v>0.01569235206651957</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01519081483876029</v>
+      </c>
+      <c r="E101">
+        <v>0.04930037237916706</v>
+      </c>
+      <c r="F101">
+        <v>-0.07046003022705476</v>
+      </c>
+      <c r="G101">
+        <v>-0.07722606521970529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1254325147334059</v>
+        <v>0.1273371297502015</v>
       </c>
       <c r="C102">
-        <v>0.06743205794279902</v>
+        <v>0.09957461269100847</v>
       </c>
       <c r="D102">
-        <v>0.04124129278261957</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.051818034757421</v>
+      </c>
+      <c r="E102">
+        <v>-0.01175711601787232</v>
+      </c>
+      <c r="F102">
+        <v>-0.01979239003620373</v>
+      </c>
+      <c r="G102">
+        <v>-0.002844069219507302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
